--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomePC\Desktop\git_learning space\Tina- gist- learning space\Tina new foldre for git REp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6C9DB-B3B8-41D4-86E3-742D3FB7A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88D052-5376-40D7-AE1B-EE623B3E222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
